--- a/downloaded_files/MDPS473_Lecture-35443.xlsx
+++ b/downloaded_files/MDPS473_Lecture-35443.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Toka Mohamed Salah El Dine Mohamed Madbouly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عاصم على محمد ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assem Ali Mohamed Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1210352</x:t>
@@ -335,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -982,7 +991,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6644226042</x:v>
+        <x:v>45923.29015</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1023,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4145265046</x:v>
+        <x:v>45906.6644226042</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1055,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45906.4145265046</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.6541982639</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6663008449</x:v>
+        <x:v>45912.6541982639</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6650076736</x:v>
+        <x:v>45906.6663008449</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6650834491</x:v>
+        <x:v>45906.6650076736</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45906.6650834491</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6649513542</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45906.6649513542</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6652153125</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45906.6652153125</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6662128819</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1392,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45906.6662128819</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS473_Lecture-35443.xlsx
+++ b/downloaded_files/MDPS473_Lecture-35443.xlsx
@@ -991,7 +991,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45923.29015</x:v>
+        <x:v>45929.0369447106</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>

--- a/downloaded_files/MDPS473_Lecture-35443.xlsx
+++ b/downloaded_files/MDPS473_Lecture-35443.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Toka Mohamed Salah El Dine Mohamed Madbouly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>دانيال رائد منير تقاوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Daniel Raed Mounir Takawi</x:t>
   </x:si>
   <x:si>
     <x:t>4220120</x:t>
@@ -344,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -991,7 +1000,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45929.0369447106</x:v>
+        <x:v>45929.5470422454</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1023,7 +1032,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6644226042</x:v>
+        <x:v>45929.0369447106</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1055,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4145265046</x:v>
+        <x:v>45906.6644226042</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6645260069</x:v>
+        <x:v>45906.4145265046</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.6541982639</x:v>
+        <x:v>45906.6645260069</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6663008449</x:v>
+        <x:v>45912.6541982639</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6650076736</x:v>
+        <x:v>45906.6663008449</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6650834491</x:v>
+        <x:v>45906.6650076736</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45906.6650834491</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6649513542</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45906.6649513542</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6652153125</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6644506944</x:v>
+        <x:v>45906.6652153125</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6662128819</x:v>
+        <x:v>45906.6644506944</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1424,6 +1433,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45906.6662128819</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
